--- a/mandalorian_assets/mandalorian.xlsx
+++ b/mandalorian_assets/mandalorian.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1dd2b3b0fc327b09/Documentos/Arquivos INSPER 2° SEMESTRE/C-Dados/TheMandalorian/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1dd2b3b0fc327b09/Documentos/Arquivos INSPER 2° SEMESTRE/C-Dados/TheMandalorian/mandalorian_assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{70ED08CF-40A2-472C-90C4-D98FB2F34A21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F3094E66-818F-4EE7-A016-53D43E537F1A}"/>
+  <xr:revisionPtr revIDLastSave="392" documentId="13_ncr:1_{70ED08CF-40A2-472C-90C4-D98FB2F34A21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{491BCE5B-4288-4B29-B5D4-A5E07446731D}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="728">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2606,9 +2606,6 @@
   </si>
   <si>
     <t>obg mandalorian por me fazer chorar nesse final incrível  https://t.co/jxyebgthp0</t>
-  </si>
-  <si>
-    <t>New</t>
   </si>
 </sst>
 </file>
@@ -2675,7 +2672,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2684,6 +2681,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3024,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="61" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3063,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -3079,7 +3081,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -3136,7 +3138,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -3176,7 +3178,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3184,7 +3186,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -3192,7 +3194,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3296,7 +3298,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -3312,7 +3314,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -3328,7 +3330,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -3344,7 +3346,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -3352,7 +3354,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -3384,7 +3386,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -3520,7 +3522,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -3532,7 +3534,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B63">
@@ -3576,7 +3578,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -3712,7 +3714,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -3720,7 +3722,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -3768,7 +3770,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -3792,7 +3794,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -3800,7 +3802,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -3848,7 +3850,7 @@
         <v>99</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -3904,7 +3906,7 @@
         <v>106</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -3992,7 +3994,7 @@
         <v>117</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -4040,7 +4042,7 @@
         <v>123</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -4048,7 +4050,7 @@
         <v>124</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -4064,7 +4066,7 @@
         <v>126</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -4088,7 +4090,7 @@
         <v>129</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -4120,7 +4122,7 @@
         <v>133</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -4176,7 +4178,7 @@
         <v>140</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -4208,7 +4210,7 @@
         <v>144</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -4288,7 +4290,7 @@
         <v>154</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -4296,7 +4298,7 @@
         <v>155</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -4328,7 +4330,7 @@
         <v>159</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -4424,7 +4426,7 @@
         <v>171</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -4464,7 +4466,7 @@
         <v>176</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -4488,7 +4490,7 @@
         <v>179</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -4548,10 +4550,10 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+      <c r="A190" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4559,7 +4561,7 @@
       <c r="A191" t="s">
         <v>188</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4567,7 +4569,7 @@
       <c r="A192" t="s">
         <v>189</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4575,7 +4577,7 @@
       <c r="A193" t="s">
         <v>190</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4583,7 +4585,7 @@
       <c r="A194" t="s">
         <v>191</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4591,7 +4593,7 @@
       <c r="A195" t="s">
         <v>192</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4599,7 +4601,7 @@
       <c r="A196" t="s">
         <v>193</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4607,7 +4609,7 @@
       <c r="A197" t="s">
         <v>194</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4615,7 +4617,7 @@
       <c r="A198" t="s">
         <v>195</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4623,7 +4625,7 @@
       <c r="A199" t="s">
         <v>196</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4631,7 +4633,7 @@
       <c r="A200" t="s">
         <v>197</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4639,7 +4641,7 @@
       <c r="A201" t="s">
         <v>198</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4647,7 +4649,7 @@
       <c r="A202" t="s">
         <v>199</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4655,15 +4657,15 @@
       <c r="A203" t="s">
         <v>200</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+      <c r="A204" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4671,7 +4673,7 @@
       <c r="A205" t="s">
         <v>202</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4679,7 +4681,7 @@
       <c r="A206" t="s">
         <v>203</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4687,7 +4689,7 @@
       <c r="A207" t="s">
         <v>204</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4695,7 +4697,7 @@
       <c r="A208" t="s">
         <v>205</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4703,7 +4705,7 @@
       <c r="A209" t="s">
         <v>206</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4711,7 +4713,7 @@
       <c r="A210" t="s">
         <v>207</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4719,7 +4721,7 @@
       <c r="A211" t="s">
         <v>208</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4727,7 +4729,7 @@
       <c r="A212" t="s">
         <v>209</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4735,7 +4737,7 @@
       <c r="A213" t="s">
         <v>210</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4743,7 +4745,7 @@
       <c r="A214" t="s">
         <v>211</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4751,7 +4753,7 @@
       <c r="A215" t="s">
         <v>212</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4759,7 +4761,7 @@
       <c r="A216" t="s">
         <v>213</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4767,7 +4769,7 @@
       <c r="A217" t="s">
         <v>214</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4775,7 +4777,7 @@
       <c r="A218" t="s">
         <v>215</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4783,7 +4785,7 @@
       <c r="A219" t="s">
         <v>216</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4791,7 +4793,7 @@
       <c r="A220" t="s">
         <v>217</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4799,7 +4801,7 @@
       <c r="A221" t="s">
         <v>218</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4807,7 +4809,7 @@
       <c r="A222" t="s">
         <v>219</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4815,7 +4817,7 @@
       <c r="A223" t="s">
         <v>220</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4823,7 +4825,7 @@
       <c r="A224" t="s">
         <v>221</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4831,7 +4833,7 @@
       <c r="A225" t="s">
         <v>222</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4839,7 +4841,7 @@
       <c r="A226" t="s">
         <v>223</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4847,7 +4849,7 @@
       <c r="A227" t="s">
         <v>224</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4855,7 +4857,7 @@
       <c r="A228" t="s">
         <v>225</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4863,7 +4865,7 @@
       <c r="A229" t="s">
         <v>226</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4871,7 +4873,7 @@
       <c r="A230" t="s">
         <v>227</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4879,7 +4881,7 @@
       <c r="A231" t="s">
         <v>228</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4887,7 +4889,7 @@
       <c r="A232" t="s">
         <v>229</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4895,7 +4897,7 @@
       <c r="A233" t="s">
         <v>230</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4903,7 +4905,7 @@
       <c r="A234" t="s">
         <v>231</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4911,7 +4913,7 @@
       <c r="A235" t="s">
         <v>232</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4919,7 +4921,7 @@
       <c r="A236" t="s">
         <v>233</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4927,7 +4929,7 @@
       <c r="A237" t="s">
         <v>234</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4935,7 +4937,7 @@
       <c r="A238" t="s">
         <v>235</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4943,7 +4945,7 @@
       <c r="A239" t="s">
         <v>236</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4951,7 +4953,7 @@
       <c r="A240" t="s">
         <v>237</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4959,7 +4961,7 @@
       <c r="A241" t="s">
         <v>238</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4967,7 +4969,7 @@
       <c r="A242" t="s">
         <v>239</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4975,7 +4977,7 @@
       <c r="A243" t="s">
         <v>240</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4983,7 +4985,7 @@
       <c r="A244" t="s">
         <v>241</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4991,7 +4993,7 @@
       <c r="A245" t="s">
         <v>242</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4999,7 +5001,7 @@
       <c r="A246" t="s">
         <v>243</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5007,7 +5009,7 @@
       <c r="A247" t="s">
         <v>244</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5015,7 +5017,7 @@
       <c r="A248" t="s">
         <v>245</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5023,7 +5025,7 @@
       <c r="A249" t="s">
         <v>246</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5031,7 +5033,7 @@
       <c r="A250" t="s">
         <v>247</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5039,7 +5041,7 @@
       <c r="A251" t="s">
         <v>248</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5047,7 +5049,7 @@
       <c r="A252" t="s">
         <v>249</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5055,7 +5057,7 @@
       <c r="A253" t="s">
         <v>250</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5063,7 +5065,7 @@
       <c r="A254" t="s">
         <v>251</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5071,7 +5073,7 @@
       <c r="A255" t="s">
         <v>252</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5079,7 +5081,7 @@
       <c r="A256" t="s">
         <v>253</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5087,7 +5089,7 @@
       <c r="A257" t="s">
         <v>254</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5095,7 +5097,7 @@
       <c r="A258" t="s">
         <v>255</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5103,7 +5105,7 @@
       <c r="A259" t="s">
         <v>256</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5111,7 +5113,7 @@
       <c r="A260" t="s">
         <v>257</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5119,7 +5121,7 @@
       <c r="A261" t="s">
         <v>258</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5127,7 +5129,7 @@
       <c r="A262" t="s">
         <v>259</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5135,7 +5137,7 @@
       <c r="A263" t="s">
         <v>260</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5143,7 +5145,7 @@
       <c r="A264" t="s">
         <v>261</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5151,7 +5153,7 @@
       <c r="A265" t="s">
         <v>262</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5159,7 +5161,7 @@
       <c r="A266" t="s">
         <v>263</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5167,7 +5169,7 @@
       <c r="A267" t="s">
         <v>264</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5175,7 +5177,7 @@
       <c r="A268" t="s">
         <v>265</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5183,7 +5185,7 @@
       <c r="A269" t="s">
         <v>266</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5191,7 +5193,7 @@
       <c r="A270" t="s">
         <v>267</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5199,7 +5201,7 @@
       <c r="A271" t="s">
         <v>268</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5207,7 +5209,7 @@
       <c r="A272" t="s">
         <v>269</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5215,7 +5217,7 @@
       <c r="A273" t="s">
         <v>270</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5223,7 +5225,7 @@
       <c r="A274" t="s">
         <v>271</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5231,7 +5233,7 @@
       <c r="A275" t="s">
         <v>272</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5239,7 +5241,7 @@
       <c r="A276" t="s">
         <v>273</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5247,7 +5249,7 @@
       <c r="A277" t="s">
         <v>274</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5255,7 +5257,7 @@
       <c r="A278" t="s">
         <v>275</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5263,7 +5265,7 @@
       <c r="A279" t="s">
         <v>276</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5271,7 +5273,7 @@
       <c r="A280" t="s">
         <v>277</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5279,7 +5281,7 @@
       <c r="A281" t="s">
         <v>278</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5287,7 +5289,7 @@
       <c r="A282" t="s">
         <v>279</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5295,7 +5297,7 @@
       <c r="A283" t="s">
         <v>280</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5303,7 +5305,7 @@
       <c r="A284" t="s">
         <v>281</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5311,7 +5313,7 @@
       <c r="A285" t="s">
         <v>282</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5319,7 +5321,7 @@
       <c r="A286" t="s">
         <v>283</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5327,7 +5329,7 @@
       <c r="A287" t="s">
         <v>284</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5335,7 +5337,7 @@
       <c r="A288" t="s">
         <v>285</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5343,7 +5345,7 @@
       <c r="A289" t="s">
         <v>286</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5351,7 +5353,7 @@
       <c r="A290" t="s">
         <v>287</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5359,7 +5361,7 @@
       <c r="A291" t="s">
         <v>288</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5367,7 +5369,7 @@
       <c r="A292" t="s">
         <v>289</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5375,7 +5377,7 @@
       <c r="A293" t="s">
         <v>290</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5383,7 +5385,7 @@
       <c r="A294" t="s">
         <v>291</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5391,7 +5393,7 @@
       <c r="A295" t="s">
         <v>292</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5399,7 +5401,7 @@
       <c r="A296" t="s">
         <v>293</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5407,7 +5409,7 @@
       <c r="A297" t="s">
         <v>294</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5415,7 +5417,7 @@
       <c r="A298" t="s">
         <v>295</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5423,7 +5425,7 @@
       <c r="A299" t="s">
         <v>296</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5431,7 +5433,7 @@
       <c r="A300" t="s">
         <v>297</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5439,7 +5441,7 @@
       <c r="A301" t="s">
         <v>298</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5447,7 +5449,7 @@
       <c r="A302" t="s">
         <v>299</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5455,7 +5457,7 @@
       <c r="A303" t="s">
         <v>300</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5463,7 +5465,7 @@
       <c r="A304" t="s">
         <v>301</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5471,7 +5473,7 @@
       <c r="A305" t="s">
         <v>302</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5479,7 +5481,7 @@
       <c r="A306" t="s">
         <v>303</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5487,7 +5489,7 @@
       <c r="A307" t="s">
         <v>304</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5495,7 +5497,7 @@
       <c r="A308" t="s">
         <v>305</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5503,7 +5505,7 @@
       <c r="A309" t="s">
         <v>306</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5511,7 +5513,7 @@
       <c r="A310" t="s">
         <v>307</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5519,7 +5521,7 @@
       <c r="A311" t="s">
         <v>308</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5527,7 +5529,7 @@
       <c r="A312" t="s">
         <v>309</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5535,7 +5537,7 @@
       <c r="A313" t="s">
         <v>310</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5543,7 +5545,7 @@
       <c r="A314" t="s">
         <v>311</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5551,7 +5553,7 @@
       <c r="A315" t="s">
         <v>312</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5559,7 +5561,7 @@
       <c r="A316" t="s">
         <v>313</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5567,7 +5569,7 @@
       <c r="A317" t="s">
         <v>314</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5640,7 +5642,7 @@
         <v>323</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
@@ -5696,7 +5698,7 @@
         <v>330</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
@@ -5712,7 +5714,7 @@
         <v>332</v>
       </c>
       <c r="B335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
@@ -5720,7 +5722,7 @@
         <v>333</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
@@ -5784,7 +5786,7 @@
         <v>341</v>
       </c>
       <c r="B344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
@@ -5824,7 +5826,7 @@
         <v>346</v>
       </c>
       <c r="B349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
@@ -5904,7 +5906,7 @@
         <v>356</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.35">
@@ -5920,7 +5922,7 @@
         <v>358</v>
       </c>
       <c r="B361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.35">
@@ -5928,7 +5930,7 @@
         <v>359</v>
       </c>
       <c r="B362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.35">
@@ -6056,7 +6058,7 @@
         <v>375</v>
       </c>
       <c r="B378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.35">
@@ -6096,7 +6098,7 @@
         <v>380</v>
       </c>
       <c r="B383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.35">
@@ -6104,7 +6106,7 @@
         <v>381</v>
       </c>
       <c r="B384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.35">
@@ -6152,7 +6154,7 @@
         <v>387</v>
       </c>
       <c r="B390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.35">
@@ -6192,7 +6194,7 @@
         <v>392</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.35">
@@ -6212,7 +6214,7 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A398" t="s">
+      <c r="A398" s="4" t="s">
         <v>395</v>
       </c>
       <c r="B398">
@@ -6288,7 +6290,7 @@
         <v>404</v>
       </c>
       <c r="B407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.35">
@@ -6328,7 +6330,7 @@
         <v>409</v>
       </c>
       <c r="B412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.35">
@@ -6336,7 +6338,7 @@
         <v>410</v>
       </c>
       <c r="B413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.35">
@@ -6568,7 +6570,7 @@
         <v>439</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.35">
@@ -6616,7 +6618,7 @@
         <v>445</v>
       </c>
       <c r="B448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.35">
@@ -6664,7 +6666,7 @@
         <v>451</v>
       </c>
       <c r="B454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.35">
@@ -6680,7 +6682,7 @@
         <v>453</v>
       </c>
       <c r="B456">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.35">
@@ -6768,7 +6770,7 @@
         <v>464</v>
       </c>
       <c r="B467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.35">
@@ -6804,7 +6806,7 @@
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A472" t="s">
+      <c r="A472" s="6" t="s">
         <v>469</v>
       </c>
       <c r="B472">
@@ -6824,7 +6826,7 @@
         <v>471</v>
       </c>
       <c r="B474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.35">
@@ -6920,7 +6922,7 @@
         <v>483</v>
       </c>
       <c r="B486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.35">
@@ -6944,7 +6946,7 @@
         <v>486</v>
       </c>
       <c r="B489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.35">
@@ -7016,7 +7018,7 @@
         <v>495</v>
       </c>
       <c r="B498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.35">
@@ -7036,7 +7038,7 @@
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A501" t="s">
+      <c r="A501" s="6" t="s">
         <v>498</v>
       </c>
       <c r="B501">
@@ -7051,10 +7053,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:B230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7064,2491 +7066,1816 @@
     <col min="3" max="3" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B1" t="s">
         <v>725</v>
       </c>
-      <c r="C1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>500</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>501</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>502</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>503</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>504</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>505</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>506</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>507</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>508</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>509</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>510</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>511</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>512</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>513</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>514</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>515</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>516</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>517</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>518</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>519</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>520</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>522</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>523</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>524</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>525</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>526</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>527</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>528</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>529</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>530</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>531</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>532</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>533</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>534</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>535</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>536</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>537</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>538</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>539</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>540</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>541</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>542</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>543</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>544</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>545</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>546</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>547</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>548</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>549</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>550</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>551</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>552</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>554</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>555</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>556</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>557</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>558</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>559</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B61" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>560</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>561</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>562</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>563</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>564</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>565</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>566</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="B68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>568</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>569</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>570</v>
       </c>
       <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>571</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>572</v>
       </c>
       <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>573</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>574</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>575</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>576</v>
       </c>
       <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>577</v>
       </c>
       <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>578</v>
       </c>
       <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>579</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>580</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>581</v>
       </c>
       <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>582</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>583</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>584</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>585</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>586</v>
       </c>
       <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>587</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>588</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>589</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>590</v>
       </c>
       <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>591</v>
       </c>
       <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>592</v>
       </c>
       <c r="B94">
-        <v>1</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>593</v>
       </c>
       <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>594</v>
       </c>
       <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>595</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>596</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>597</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>598</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>599</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>600</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>601</v>
       </c>
       <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>602</v>
       </c>
       <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>603</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>604</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>605</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>606</v>
       </c>
       <c r="B108">
         <v>1</v>
       </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>607</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>608</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>609</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>610</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>611</v>
       </c>
       <c r="B113">
         <v>0</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>612</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>613</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>614</v>
       </c>
       <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>615</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>616</v>
       </c>
       <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>617</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>618</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>619</v>
       </c>
       <c r="B121">
         <v>0</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>620</v>
       </c>
       <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>621</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>622</v>
       </c>
       <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>623</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>624</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>625</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
-      <c r="C127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>626</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>627</v>
       </c>
       <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>628</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>629</v>
       </c>
       <c r="B131">
         <v>0</v>
       </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>630</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>631</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>632</v>
       </c>
       <c r="B134">
-        <v>1</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>633</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>634</v>
       </c>
       <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>635</v>
       </c>
       <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>636</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>637</v>
       </c>
       <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>638</v>
       </c>
       <c r="B140">
         <v>1</v>
       </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>639</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>640</v>
       </c>
       <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>641</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>642</v>
       </c>
       <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>643</v>
       </c>
       <c r="B145">
         <v>1</v>
       </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>644</v>
       </c>
       <c r="B146">
-        <v>1</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>645</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>646</v>
       </c>
       <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>647</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
-      <c r="C149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>648</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>649</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
-      <c r="C151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>650</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>651</v>
       </c>
       <c r="B153">
-        <v>1</v>
-      </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>652</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>653</v>
       </c>
       <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>654</v>
       </c>
       <c r="B156">
-        <v>0</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>655</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>656</v>
       </c>
       <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>657</v>
       </c>
       <c r="B159">
         <v>0</v>
       </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>658</v>
       </c>
       <c r="B160">
-        <v>0</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>659</v>
       </c>
       <c r="B161">
-        <v>0</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>660</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>661</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
-      <c r="C163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>662</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>663</v>
       </c>
       <c r="B165">
-        <v>0</v>
-      </c>
-      <c r="C165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>664</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>665</v>
       </c>
       <c r="B167">
-        <v>0</v>
-      </c>
-      <c r="C167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>666</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
-      <c r="C168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>667</v>
       </c>
       <c r="B169">
         <v>0</v>
       </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>668</v>
       </c>
       <c r="B170">
-        <v>0</v>
-      </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>669</v>
       </c>
       <c r="B171">
-        <v>0</v>
-      </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>670</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-      <c r="C172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>671</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
-      <c r="C173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>672</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
-      <c r="C174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>673</v>
       </c>
       <c r="B175">
-        <v>0</v>
-      </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>674</v>
       </c>
       <c r="B176">
-        <v>0</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>675</v>
       </c>
       <c r="B177">
-        <v>1</v>
-      </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>676</v>
       </c>
       <c r="B178">
-        <v>0</v>
-      </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>677</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>678</v>
       </c>
       <c r="B180">
-        <v>0</v>
-      </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>679</v>
       </c>
       <c r="B181">
-        <v>0</v>
-      </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>680</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
-      <c r="C182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>681</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>682</v>
       </c>
       <c r="B184">
-        <v>0</v>
-      </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>683</v>
       </c>
       <c r="B185">
-        <v>0</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>684</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
-      <c r="C186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>685</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>686</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>687</v>
       </c>
       <c r="B189">
-        <v>0</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>688</v>
       </c>
       <c r="B190">
-        <v>0</v>
-      </c>
-      <c r="C190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>689</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
-      <c r="C191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>690</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>691</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
-      <c r="C193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>692</v>
       </c>
       <c r="B194">
         <v>0</v>
       </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>693</v>
       </c>
       <c r="B195">
-        <v>0</v>
-      </c>
-      <c r="C195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>694</v>
       </c>
       <c r="B196">
         <v>0</v>
       </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>695</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>696</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
-      <c r="C198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>697</v>
       </c>
       <c r="B199">
-        <v>1</v>
-      </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>698</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>699</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
-      <c r="C201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>700</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
-      <c r="C202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>701</v>
       </c>
       <c r="B203">
-        <v>0</v>
-      </c>
-      <c r="C203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>702</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
-      <c r="C204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>703</v>
       </c>
       <c r="B205">
-        <v>0</v>
-      </c>
-      <c r="C205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>704</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
-      <c r="C206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>705</v>
       </c>
       <c r="B207">
-        <v>0</v>
-      </c>
-      <c r="C207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>706</v>
       </c>
       <c r="B208">
-        <v>0</v>
-      </c>
-      <c r="C208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>707</v>
       </c>
       <c r="B209">
-        <v>0</v>
-      </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>708</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
-      <c r="C210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>709</v>
       </c>
       <c r="B211">
-        <v>1</v>
-      </c>
-      <c r="C211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>710</v>
       </c>
       <c r="B212">
-        <v>0</v>
-      </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>711</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
-      <c r="C213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>712</v>
       </c>
       <c r="B214">
-        <v>0</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>713</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>714</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>715</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>716</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
-      <c r="C218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>717</v>
       </c>
       <c r="B219">
-        <v>0</v>
-      </c>
-      <c r="C219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>718</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
-      <c r="C220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>719</v>
       </c>
       <c r="B221">
         <v>1</v>
       </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>720</v>
       </c>
       <c r="B222">
         <v>1</v>
       </c>
-      <c r="C222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>721</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>722</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
-      <c r="C224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>723</v>
       </c>
       <c r="B225">
-        <v>1</v>
-      </c>
-      <c r="C225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>724</v>
       </c>
       <c r="B226">
-        <v>0</v>
-      </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
